--- a/CodeSystem-SzChiefdomCS.xlsx
+++ b/CodeSystem-SzChiefdomCS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/CodeSystem/SzChiefdomCS</t>
+    <t>http://172.209.216.154:3447/fhir/CodeSystem/SzChiefdomCS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/CodeSystem-SzChiefdomCS.xlsx
+++ b/CodeSystem-SzChiefdomCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzChiefdomCS.xlsx
+++ b/CodeSystem-SzChiefdomCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzChiefdomCS.xlsx
+++ b/CodeSystem-SzChiefdomCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="701">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,1120 +117,2005 @@
     <t>Count</t>
   </si>
   <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-99</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamgabhi </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Dlangeni</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Kasiko</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Sitseni</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Zulwini</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ELangeni</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobamba </t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Nkhanini</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Zabeni</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Zandondo</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gucuka </t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tfuntini/Buhlebuyeza    </t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Dvokolwako / Ekuphakameni</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Ekukhulumeni/ Mandlangempisi</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Nyonyane/ Maguga</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Mavula</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Maphalaleni</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Dlozini</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Mcengeni</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Madlolo</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Nsingweni</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Mfeni</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Mkhuzweni</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Mfasini</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Mkhweni</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Herefords</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Msunduza</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Fontein</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Sidwashini</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Mdzimba/Lofokati</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Manzana</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nkwalini </t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangwaneni </t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Mangweni</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Ndvwabangeni</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Nhlanguyavuka</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinyane </t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emalibeni   </t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Sidvwashini</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Nyakatfo</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Mphofu</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Mgungundlovu</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Nkamanzi</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludlawini </t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Mvuma</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Bulandzeni</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Ndzingeni</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Kwaliweni</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Meleti</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Ntsanjeni</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Ejubukweni</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Malanti</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Nkhaba</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Kuvinjelweni</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Vusweni</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Mshingishingini</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>ka-Hhohho</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Lomshiyo</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Emvembili</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Kandwandwa</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Hhelehhele</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Bulembu (Luhhumaneni 1)</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Luhhumaneni/kaNdeva</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Luhlangotsini</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Piggs Peak</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Nginamadvolo</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Nsangwini</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Siphocosini</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Sigangeni</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Luhlendlweni</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Mantabeni</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Mashobeni North</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Mvembili</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Ludzibini</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Hhohho</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Hlane</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Malindza</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Mdumezulu</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Njabulweni</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Ntandweni (Malindza)</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Etjedze</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Sigcaweni West</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Macetjeni (Mabondvweni)</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Hlutse</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Macetjeni</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Vikizijula</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Bulunga</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Lomahasha</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Shewula</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>kaVuma</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Canter berry</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Mabantaneni</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Ntuthwakazi</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>kaLanga</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Makhewu</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Mlindazwe</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Sitsatsaweni</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Lukhetseni</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Mambane</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Maphungwane</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Tikhuba</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Mafucula</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Mhlume</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Simunye</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Tambankulu</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Tshaneni</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Vuvulane</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Tsambokhulu</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>kaShoba</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Mpolonjeni</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Ndzangu</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Ngcina</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Sigcaweni East</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Crooks Plantations</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Gamula</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Lunkuntfu</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Nkhanini/Lusabeni</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Illovo/Mayaluka</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Phafeni</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Madlenya</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Maphilingo</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>kaMkhweli</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Mphumakudze</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Nceka</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Ngevini</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Tambuti</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Luhlanyeni</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Mamisa</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Nkonjwa</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Nokwane</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Nyakeni</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Nkiliji</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Bhekinkhosi</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Nswaceni</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Mkhulamini</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Maliyaduma</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>Mbeka</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Kwaluseni</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Logoba</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Mhlane</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Lamgabhi</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Dvudvusini</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Luhleko</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Emhlangeni</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Nhlulweni</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Kufinyeni</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>Luyengo</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Mahlanya</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Ngwenyameni</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Mbekelweni</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Zombodze</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Lozitha</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Kudzeni</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Ngculwini</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Ka-Nkhambule</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>Mafutseni</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Luhlokohla</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Timbutini</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Bhudla</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Mgomfelweni</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Luzelweni</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Mambatfweni</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>Ludvondvolweni</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>KaZulu</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Nciniselweni</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Ndzeleni</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigcineni </t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Bhahwini</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Mangcongco/Zenukeni</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Sandlane/Ekuthuleni</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Mabhukwini</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Dwalile</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Makholweni</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>St Pauls</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>Mnyenyweni</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Manzini Central</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>Dwaleni</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Mzimnene</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Mhobodleni</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mjingo </t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Moneni</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Ticancweni</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Zakhele</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Ngwane Park</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Zondwako</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Lundzi</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Dingizwe</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Mbangave</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Bhunya</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Dvokolwako</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Mbelebeleni</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Kutsimuleni</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Khuphuka</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Likima</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Gundvwini</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Gundvwini/Lesibovu</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Lwandle</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Ndlandlameni</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Hlane/Bulunga</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Dladleni</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Ngcoseni</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Bhadzeni 1</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Velezizweni</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Macudvulwini</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Ngonini</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Njelu</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Mphankhomo</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Masundvwini</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Sibuyeni</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Sigombeni</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Ntunja</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>Eni</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Ngcayini</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>Sankolweni</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>Nsenga</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Ntondozi</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Ncabaneni</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Khalangilile</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Mphini</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Ndinda</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Ndlinilembi</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Gebeni</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Mgazini</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Bhadzeni 2</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Mahhashini</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Lushikishini</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Khabonina</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Dilini</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>KaDinga</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>kaTsambekwako</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>Mashobeni</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mhlahlweni </t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>Nshamanti</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nsukazi </t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>Sidwala</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>Sisingeni</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>Siyendle</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Bufaneni</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>Hhohho Emuva</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>kaLiba</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>Lushini</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Manyiseni</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>Nsingizini</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>Ondiyaneni</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>Ezishineni/ Manyeveni</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>Kaphunga</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>KaNdlovu</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>Ngobelweni</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>Nhlalabantfu</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>KaKholwane</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>kaMbhoke</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>kaGwebu</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>Gasa</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Khamsile</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>Lomfa</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>Mbabane</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>Mbangweni</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>Nkalaneni</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>Nzameya</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>Nkomonye</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KaDlovunga </t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>KaMzizi</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>Masibini</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>Mbilaneni</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simemeni </t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>Bambitje</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>Dinabanye</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>Nkonka</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>Nsalitje</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>Qomintaba</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>Benezer</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>Bhanganoma</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>Kwendzeni</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>Magele</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>Zenzile</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>KaMbiko</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>KaMhawu</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>KaMshengu</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>Lusitini</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>Ndushulweni</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>Phobane</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>Buseleni</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>Hlobane</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>Kuphumuleni</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>Nkwene</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>kaGwegwe</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Ezibondeni/Kashiba</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Nhletjeni</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Nkhungwini</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Ngololweni</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Dumenkhungwini</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Eposini</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>Hhuhhuma</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>Mabonabulawe</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manyandzeni </t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mchinsweni </t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zikhotheni </t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Mahlalini</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>Mbabala</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>Makhwelela</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>Mpangisweni</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>Mathendele</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>Mkhitsini</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>Sikhotseni</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>Lulakeni</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Bambitje</t>
-  </si>
-  <si>
-    <t>Benezer</t>
-  </si>
-  <si>
-    <t>Bhadzeni_1</t>
-  </si>
-  <si>
-    <t>Bhadzeni 1</t>
-  </si>
-  <si>
-    <t>Bhadzeni_2</t>
-  </si>
-  <si>
-    <t>Bhadzeni 2</t>
-  </si>
-  <si>
-    <t>Bhahwini</t>
-  </si>
-  <si>
-    <t>Bhanganoma</t>
-  </si>
-  <si>
-    <t>Bhekinkhosi</t>
-  </si>
-  <si>
-    <t>Bhudla</t>
-  </si>
-  <si>
-    <t>Bhunya</t>
-  </si>
-  <si>
-    <t>Bufaneni</t>
-  </si>
-  <si>
-    <t>Bulandzeni</t>
+    <t xml:space="preserve">Kuphumleni </t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Ndunayithini</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>Nyatsini</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>Ezindwendweni</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>Luhlekweni</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>Maplotini</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>Nsubane</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>Phangweni</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>Vimbizibuko</t>
+  </si>
+  <si>
+    <t>330</t>
   </si>
   <si>
     <t>Bulekeni</t>
   </si>
   <si>
-    <t>Bulembu_Luhhumaneni_1</t>
-  </si>
-  <si>
-    <t>Bulembu (Luhhumaneni 1)</t>
-  </si>
-  <si>
-    <t>Bulunga</t>
-  </si>
-  <si>
-    <t>Buseleni</t>
-  </si>
-  <si>
-    <t>Canter_berry</t>
-  </si>
-  <si>
-    <t>Canter berry</t>
-  </si>
-  <si>
-    <t>Crooks_Plantations</t>
-  </si>
-  <si>
-    <t>Crooks Plantations</t>
-  </si>
-  <si>
-    <t>Dilini</t>
-  </si>
-  <si>
-    <t>Dinabanye</t>
-  </si>
-  <si>
-    <t>Dingizwe</t>
-  </si>
-  <si>
-    <t>Dladleni</t>
-  </si>
-  <si>
-    <t>Dlangeni</t>
-  </si>
-  <si>
-    <t>Dlozini</t>
-  </si>
-  <si>
-    <t>Dumenkhungwini</t>
-  </si>
-  <si>
-    <t>Dvokolwako</t>
-  </si>
-  <si>
-    <t>Dvokolwako_Ekuphakameni</t>
-  </si>
-  <si>
-    <t>Dvokolwako / Ekuphakameni</t>
-  </si>
-  <si>
-    <t>Dvudvusini</t>
-  </si>
-  <si>
-    <t>Dwaleni</t>
-  </si>
-  <si>
-    <t>Dwalile</t>
-  </si>
-  <si>
-    <t>Ejubukweni</t>
-  </si>
-  <si>
-    <t>Ekukhulumeni_Mandlangempisi</t>
-  </si>
-  <si>
-    <t>Ekukhulumeni/ Mandlangempisi</t>
-  </si>
-  <si>
-    <t>ELangeni</t>
-  </si>
-  <si>
-    <t>Emalibeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emalibeni   </t>
-  </si>
-  <si>
-    <t>Emhlangeni</t>
-  </si>
-  <si>
-    <t>Emvembili</t>
-  </si>
-  <si>
-    <t>Eni</t>
-  </si>
-  <si>
-    <t>Eposini</t>
-  </si>
-  <si>
-    <t>Etjedze</t>
-  </si>
-  <si>
-    <t>Ezibondeni_Kashiba</t>
-  </si>
-  <si>
-    <t>Ezibondeni/Kashiba</t>
-  </si>
-  <si>
-    <t>Ezindwendweni</t>
-  </si>
-  <si>
-    <t>Ezishineni_Manyeveni</t>
-  </si>
-  <si>
-    <t>Ezishineni/ Manyeveni</t>
-  </si>
-  <si>
-    <t>Fontein</t>
-  </si>
-  <si>
-    <t>Gamula</t>
-  </si>
-  <si>
-    <t>Gasa</t>
-  </si>
-  <si>
-    <t>Gebeni</t>
-  </si>
-  <si>
-    <t>Gucuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gucuka </t>
-  </si>
-  <si>
-    <t>Gundvwini</t>
-  </si>
-  <si>
-    <t>Gundvwini_Lesibovu</t>
-  </si>
-  <si>
-    <t>Gundvwini/Lesibovu</t>
-  </si>
-  <si>
-    <t>Herefords</t>
-  </si>
-  <si>
-    <t>Hhelehhele</t>
-  </si>
-  <si>
-    <t>Hhohho</t>
-  </si>
-  <si>
-    <t>Hhohho_Emuva</t>
-  </si>
-  <si>
-    <t>Hhohho Emuva</t>
-  </si>
-  <si>
-    <t>Hhuhhuma</t>
-  </si>
-  <si>
-    <t>Hlane</t>
-  </si>
-  <si>
-    <t>Hlane_Bulunga</t>
-  </si>
-  <si>
-    <t>Hlane/Bulunga</t>
-  </si>
-  <si>
-    <t>Hlobane</t>
-  </si>
-  <si>
-    <t>Hlutse</t>
-  </si>
-  <si>
-    <t>Illovo_Mayaluka</t>
-  </si>
-  <si>
-    <t>Illovo/Mayaluka</t>
-  </si>
-  <si>
-    <t>KaDinga</t>
-  </si>
-  <si>
-    <t>KaDlovunga_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KaDlovunga </t>
-  </si>
-  <si>
-    <t>kaGwebu</t>
-  </si>
-  <si>
-    <t>kaGwegwe</t>
-  </si>
-  <si>
-    <t>ka-Hhohho</t>
-  </si>
-  <si>
-    <t>KaKholwane</t>
-  </si>
-  <si>
-    <t>kaLanga</t>
-  </si>
-  <si>
-    <t>kaLiba</t>
-  </si>
-  <si>
-    <t>kaMbhoke</t>
-  </si>
-  <si>
-    <t>KaMbiko</t>
-  </si>
-  <si>
-    <t>KaMhawu</t>
-  </si>
-  <si>
-    <t>kaMkhweli</t>
-  </si>
-  <si>
-    <t>KaMshengu</t>
-  </si>
-  <si>
-    <t>KaMzizi</t>
-  </si>
-  <si>
-    <t>KaNdlovu</t>
-  </si>
-  <si>
-    <t>Kandwandwa</t>
-  </si>
-  <si>
-    <t>Ka-Nkhambule</t>
-  </si>
-  <si>
-    <t>Kaphunga</t>
-  </si>
-  <si>
-    <t>kaShoba</t>
-  </si>
-  <si>
-    <t>Kasiko</t>
-  </si>
-  <si>
-    <t>kaTsambekwako</t>
-  </si>
-  <si>
-    <t>kaVuma</t>
-  </si>
-  <si>
-    <t>KaZulu</t>
-  </si>
-  <si>
-    <t>Khabonina</t>
-  </si>
-  <si>
-    <t>Khalangilile</t>
-  </si>
-  <si>
-    <t>Khamsile</t>
-  </si>
-  <si>
-    <t>Khuphuka</t>
-  </si>
-  <si>
-    <t>Kudzeni</t>
-  </si>
-  <si>
-    <t>Kufinyeni</t>
+    <t>331</t>
+  </si>
+  <si>
+    <t>Mampondweni</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngwenyameni </t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zombodze </t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>Nduma</t>
+  </si>
+  <si>
+    <t>335</t>
   </si>
   <si>
     <t>Kupheleni</t>
   </si>
   <si>
-    <t>Kuphumleni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuphumleni </t>
-  </si>
-  <si>
-    <t>Kuphumuleni</t>
-  </si>
-  <si>
-    <t>Kutsimuleni</t>
-  </si>
-  <si>
-    <t>Kuvinjelweni</t>
-  </si>
-  <si>
-    <t>Kwaliweni</t>
-  </si>
-  <si>
-    <t>Kwaluseni</t>
-  </si>
-  <si>
-    <t>Kwendzeni</t>
-  </si>
-  <si>
-    <t>Lamgabhi</t>
-  </si>
-  <si>
-    <t>Likima</t>
-  </si>
-  <si>
-    <t>Lobamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobamba </t>
-  </si>
-  <si>
-    <t>Logoba</t>
-  </si>
-  <si>
-    <t>Lomahasha</t>
-  </si>
-  <si>
-    <t>Lomfa</t>
-  </si>
-  <si>
-    <t>Lomshiyo</t>
-  </si>
-  <si>
-    <t>Lozitha</t>
-  </si>
-  <si>
-    <t>Ludlawini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludlawini </t>
-  </si>
-  <si>
-    <t>Ludvondvolweni</t>
-  </si>
-  <si>
-    <t>Ludzibini</t>
-  </si>
-  <si>
-    <t>Luhhumaneni_kaNdeva</t>
-  </si>
-  <si>
-    <t>Luhhumaneni/kaNdeva</t>
-  </si>
-  <si>
-    <t>Luhlangotsini</t>
-  </si>
-  <si>
-    <t>Luhlanyeni</t>
-  </si>
-  <si>
-    <t>Luhleko</t>
-  </si>
-  <si>
-    <t>Luhlekweni</t>
-  </si>
-  <si>
-    <t>Luhlendlweni</t>
-  </si>
-  <si>
-    <t>Luhlokohla</t>
-  </si>
-  <si>
-    <t>Lukhetseni</t>
-  </si>
-  <si>
-    <t>Lulakeni</t>
-  </si>
-  <si>
-    <t>Lundzi</t>
-  </si>
-  <si>
-    <t>Lunkuntfu</t>
-  </si>
-  <si>
-    <t>Lushikishini</t>
-  </si>
-  <si>
-    <t>Lushini</t>
-  </si>
-  <si>
-    <t>Lusitini</t>
-  </si>
-  <si>
-    <t>Luyengo</t>
-  </si>
-  <si>
-    <t>Luzelweni</t>
-  </si>
-  <si>
-    <t>Lwandle</t>
-  </si>
-  <si>
-    <t>Mabantaneni</t>
-  </si>
-  <si>
-    <t>Mabhukwini</t>
-  </si>
-  <si>
-    <t>Mabonabulawe</t>
-  </si>
-  <si>
-    <t>Macetjeni</t>
-  </si>
-  <si>
-    <t>Macetjeni_Mabondvweni</t>
-  </si>
-  <si>
-    <t>Macetjeni (Mabondvweni)</t>
-  </si>
-  <si>
-    <t>Macudvulwini</t>
-  </si>
-  <si>
-    <t>Madlenya</t>
-  </si>
-  <si>
-    <t>Madlolo</t>
-  </si>
-  <si>
-    <t>Mafucula</t>
-  </si>
-  <si>
-    <t>Mafutseni</t>
-  </si>
-  <si>
-    <t>Magele</t>
-  </si>
-  <si>
-    <t>Mahhashini</t>
-  </si>
-  <si>
-    <t>Mahlalini</t>
-  </si>
-  <si>
-    <t>Mahlanya</t>
-  </si>
-  <si>
-    <t>Makhewu</t>
-  </si>
-  <si>
-    <t>Makholweni</t>
-  </si>
-  <si>
-    <t>Makhwelela</t>
-  </si>
-  <si>
-    <t>Malanti</t>
-  </si>
-  <si>
-    <t>Malindza</t>
-  </si>
-  <si>
-    <t>Maliyaduma</t>
-  </si>
-  <si>
-    <t>Mambane</t>
-  </si>
-  <si>
-    <t>Mambatfweni</t>
-  </si>
-  <si>
-    <t>Mamisa</t>
-  </si>
-  <si>
-    <t>Mampondweni</t>
-  </si>
-  <si>
-    <t>Mangcongco_Zenukeni</t>
-  </si>
-  <si>
-    <t>Mangcongco/Zenukeni</t>
-  </si>
-  <si>
-    <t>Mangwaneni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mangwaneni </t>
-  </si>
-  <si>
-    <t>Mangweni</t>
-  </si>
-  <si>
-    <t>Mantabeni</t>
-  </si>
-  <si>
-    <t>Manyandzeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manyandzeni </t>
-  </si>
-  <si>
-    <t>Manyiseni</t>
-  </si>
-  <si>
-    <t>Manzana</t>
-  </si>
-  <si>
-    <t>Manzini_Central</t>
-  </si>
-  <si>
-    <t>Manzini Central</t>
-  </si>
-  <si>
-    <t>Maphalaleni</t>
-  </si>
-  <si>
-    <t>Maphilingo</t>
-  </si>
-  <si>
-    <t>Maphungwane</t>
-  </si>
-  <si>
-    <t>Maplotini</t>
-  </si>
-  <si>
-    <t>Mashobeni</t>
-  </si>
-  <si>
-    <t>Mashobeni_North</t>
-  </si>
-  <si>
-    <t>Mashobeni North</t>
-  </si>
-  <si>
-    <t>Masibini</t>
-  </si>
-  <si>
-    <t>Masundvwini</t>
-  </si>
-  <si>
-    <t>Mathendele</t>
-  </si>
-  <si>
-    <t>Mavula</t>
-  </si>
-  <si>
-    <t>Mbabala</t>
-  </si>
-  <si>
-    <t>Mbabane</t>
-  </si>
-  <si>
-    <t>Mbangave</t>
-  </si>
-  <si>
-    <t>Mbangweni</t>
-  </si>
-  <si>
-    <t>Mbeka</t>
-  </si>
-  <si>
-    <t>Mbekelweni</t>
-  </si>
-  <si>
-    <t>Mbelebeleni</t>
-  </si>
-  <si>
-    <t>Mbilaneni</t>
-  </si>
-  <si>
-    <t>Mcengeni</t>
-  </si>
-  <si>
-    <t>Mchinsweni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mchinsweni </t>
-  </si>
-  <si>
-    <t>Mdumezulu</t>
-  </si>
-  <si>
-    <t>Mdzimba_Lofokati</t>
-  </si>
-  <si>
-    <t>Mdzimba/Lofokati</t>
-  </si>
-  <si>
-    <t>Meleti</t>
-  </si>
-  <si>
-    <t>Mfasini</t>
-  </si>
-  <si>
-    <t>Mfeni</t>
-  </si>
-  <si>
-    <t>Mgazini</t>
-  </si>
-  <si>
-    <t>Mgomfelweni</t>
-  </si>
-  <si>
-    <t>Mgungundlovu</t>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>Mhlangatane</t>
   </si>
   <si>
     <t>Mhawini</t>
-  </si>
-  <si>
-    <t>Mhlahlweni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mhlahlweni </t>
-  </si>
-  <si>
-    <t>Mhlane</t>
-  </si>
-  <si>
-    <t>Mhlangatane</t>
-  </si>
-  <si>
-    <t>Mhlume</t>
-  </si>
-  <si>
-    <t>Mhobodleni</t>
-  </si>
-  <si>
-    <t>Mjingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mjingo </t>
-  </si>
-  <si>
-    <t>Mkhitsini</t>
-  </si>
-  <si>
-    <t>Mkhulamini</t>
-  </si>
-  <si>
-    <t>Mkhuzweni</t>
-  </si>
-  <si>
-    <t>Mkhweni</t>
-  </si>
-  <si>
-    <t>Mlindazwe</t>
-  </si>
-  <si>
-    <t>Mnyenyweni</t>
-  </si>
-  <si>
-    <t>Moneni</t>
-  </si>
-  <si>
-    <t>Mpangisweni</t>
-  </si>
-  <si>
-    <t>Mphankhomo</t>
-  </si>
-  <si>
-    <t>Mphini</t>
-  </si>
-  <si>
-    <t>Mphofu</t>
-  </si>
-  <si>
-    <t>Mphumakudze</t>
-  </si>
-  <si>
-    <t>Mpolonjeni</t>
-  </si>
-  <si>
-    <t>Mshingishingini</t>
-  </si>
-  <si>
-    <t>Msunduza</t>
-  </si>
-  <si>
-    <t>Mvembili</t>
-  </si>
-  <si>
-    <t>Mvuma</t>
-  </si>
-  <si>
-    <t>Mzimnene</t>
-  </si>
-  <si>
-    <t>Ncabaneni</t>
-  </si>
-  <si>
-    <t>Nceka</t>
-  </si>
-  <si>
-    <t>Nciniselweni</t>
-  </si>
-  <si>
-    <t>Ndinda</t>
-  </si>
-  <si>
-    <t>Ndlandlameni</t>
-  </si>
-  <si>
-    <t>Ndlinilembi</t>
-  </si>
-  <si>
-    <t>Nduma</t>
-  </si>
-  <si>
-    <t>Ndunayithini</t>
-  </si>
-  <si>
-    <t>Ndushulweni</t>
-  </si>
-  <si>
-    <t>Ndvwabangeni</t>
-  </si>
-  <si>
-    <t>Ndzangu</t>
-  </si>
-  <si>
-    <t>Ndzeleni</t>
-  </si>
-  <si>
-    <t>Ndzingeni</t>
-  </si>
-  <si>
-    <t>Ngcayini</t>
-  </si>
-  <si>
-    <t>Ngcina</t>
-  </si>
-  <si>
-    <t>Ngcoseni</t>
-  </si>
-  <si>
-    <t>Ngculwini</t>
-  </si>
-  <si>
-    <t>Ngevini</t>
-  </si>
-  <si>
-    <t>Nginamadvolo</t>
-  </si>
-  <si>
-    <t>Ngobelweni</t>
-  </si>
-  <si>
-    <t>Ngololweni</t>
-  </si>
-  <si>
-    <t>Ngonini</t>
-  </si>
-  <si>
-    <t>Ngwane_Park</t>
-  </si>
-  <si>
-    <t>Ngwane Park</t>
-  </si>
-  <si>
-    <t>Ngwenyameni</t>
-  </si>
-  <si>
-    <t>Nhlalabantfu</t>
-  </si>
-  <si>
-    <t>Nhlanguyavuka</t>
-  </si>
-  <si>
-    <t>Nhletjeni</t>
-  </si>
-  <si>
-    <t>Nhlulweni</t>
-  </si>
-  <si>
-    <t>Njabulweni</t>
-  </si>
-  <si>
-    <t>Njelu</t>
-  </si>
-  <si>
-    <t>Nkalaneni</t>
-  </si>
-  <si>
-    <t>Nkamanzi</t>
-  </si>
-  <si>
-    <t>Nkhaba</t>
-  </si>
-  <si>
-    <t>Nkhanini</t>
-  </si>
-  <si>
-    <t>Nkhanini_Lusabeni</t>
-  </si>
-  <si>
-    <t>Nkhanini/Lusabeni</t>
-  </si>
-  <si>
-    <t>Nkhungwini</t>
-  </si>
-  <si>
-    <t>Nkiliji</t>
-  </si>
-  <si>
-    <t>Nkomonye</t>
-  </si>
-  <si>
-    <t>Nkonjwa</t>
-  </si>
-  <si>
-    <t>Nkonka</t>
-  </si>
-  <si>
-    <t>Nkwalini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nkwalini </t>
-  </si>
-  <si>
-    <t>Nkwene</t>
-  </si>
-  <si>
-    <t>Nokwane</t>
-  </si>
-  <si>
-    <t>Nsalitje</t>
-  </si>
-  <si>
-    <t>Nsangwini</t>
-  </si>
-  <si>
-    <t>Nsenga</t>
-  </si>
-  <si>
-    <t>Nshamanti</t>
-  </si>
-  <si>
-    <t>Nsingizini</t>
-  </si>
-  <si>
-    <t>Nsingweni</t>
-  </si>
-  <si>
-    <t>Nsubane</t>
-  </si>
-  <si>
-    <t>Nsukazi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nsukazi </t>
-  </si>
-  <si>
-    <t>Nswaceni</t>
-  </si>
-  <si>
-    <t>Ntandweni_Malindza</t>
-  </si>
-  <si>
-    <t>Ntandweni (Malindza)</t>
-  </si>
-  <si>
-    <t>Ntondozi</t>
-  </si>
-  <si>
-    <t>Ntsanjeni</t>
-  </si>
-  <si>
-    <t>Ntunja</t>
-  </si>
-  <si>
-    <t>Ntuthwakazi</t>
-  </si>
-  <si>
-    <t>Nyakatfo</t>
-  </si>
-  <si>
-    <t>Nyakeni</t>
-  </si>
-  <si>
-    <t>Nyatsini</t>
-  </si>
-  <si>
-    <t>Nyonyane_Maguga</t>
-  </si>
-  <si>
-    <t>Nyonyane/ Maguga</t>
-  </si>
-  <si>
-    <t>Nzameya</t>
-  </si>
-  <si>
-    <t>Ondiyaneni</t>
-  </si>
-  <si>
-    <t>Phafeni</t>
-  </si>
-  <si>
-    <t>Phangweni</t>
-  </si>
-  <si>
-    <t>Phobane</t>
-  </si>
-  <si>
-    <t>Piggs_Peak</t>
-  </si>
-  <si>
-    <t>Piggs Peak</t>
-  </si>
-  <si>
-    <t>Qomintaba</t>
-  </si>
-  <si>
-    <t>Sandlane_Ekuthuleni</t>
-  </si>
-  <si>
-    <t>Sandlane/Ekuthuleni</t>
-  </si>
-  <si>
-    <t>Sankolweni</t>
-  </si>
-  <si>
-    <t>Shewula</t>
-  </si>
-  <si>
-    <t>Sibuyeni</t>
-  </si>
-  <si>
-    <t>Sidvwashini</t>
-  </si>
-  <si>
-    <t>Sidwala</t>
-  </si>
-  <si>
-    <t>Sidwashini</t>
-  </si>
-  <si>
-    <t>Sigangeni</t>
-  </si>
-  <si>
-    <t>Sigcaweni_East</t>
-  </si>
-  <si>
-    <t>Sigcaweni East</t>
-  </si>
-  <si>
-    <t>Sigcaweni_West</t>
-  </si>
-  <si>
-    <t>Sigcaweni West</t>
-  </si>
-  <si>
-    <t>Sigcineni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sigcineni </t>
-  </si>
-  <si>
-    <t>Sigombeni</t>
-  </si>
-  <si>
-    <t>Sikhotseni</t>
-  </si>
-  <si>
-    <t>Simemeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simemeni </t>
-  </si>
-  <si>
-    <t>Simunye</t>
-  </si>
-  <si>
-    <t>Siphocosini</t>
-  </si>
-  <si>
-    <t>Sisingeni</t>
-  </si>
-  <si>
-    <t>Sitsatsaweni</t>
-  </si>
-  <si>
-    <t>Sitseni</t>
-  </si>
-  <si>
-    <t>Siyendle</t>
-  </si>
-  <si>
-    <t>St_Pauls</t>
-  </si>
-  <si>
-    <t>St Pauls</t>
-  </si>
-  <si>
-    <t>Tambankulu</t>
-  </si>
-  <si>
-    <t>Tambuti</t>
-  </si>
-  <si>
-    <t>Tfuntini_Buhlebuyeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tfuntini/Buhlebuyeza    </t>
-  </si>
-  <si>
-    <t>Ticancweni</t>
-  </si>
-  <si>
-    <t>Tikhuba</t>
-  </si>
-  <si>
-    <t>Timbutini</t>
-  </si>
-  <si>
-    <t>Tsambokhulu</t>
-  </si>
-  <si>
-    <t>Tshaneni</t>
-  </si>
-  <si>
-    <t>Unspecified</t>
-  </si>
-  <si>
-    <t>Velezizweni</t>
-  </si>
-  <si>
-    <t>Vikizijula</t>
-  </si>
-  <si>
-    <t>Vimbizibuko</t>
-  </si>
-  <si>
-    <t>Vusweni</t>
-  </si>
-  <si>
-    <t>Vuvulane</t>
-  </si>
-  <si>
-    <t>Zabeni</t>
-  </si>
-  <si>
-    <t>Zakhele</t>
-  </si>
-  <si>
-    <t>Zandondo</t>
-  </si>
-  <si>
-    <t>Zenzile</t>
-  </si>
-  <si>
-    <t>Zikhotheni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zikhotheni </t>
-  </si>
-  <si>
-    <t>Zinyane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinyane </t>
-  </si>
-  <si>
-    <t>Zombodze</t>
-  </si>
-  <si>
-    <t>Zondwako</t>
-  </si>
-  <si>
-    <t>Zulwini</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +2424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +2452,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1576,10 +2461,10 @@
         <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1588,10 +2473,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1600,10 +2485,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1612,10 +2497,10 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1624,10 +2509,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1636,10 +2521,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1648,10 +2533,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1660,10 +2545,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1672,10 +2557,10 @@
         <v>39</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1684,10 +2569,10 @@
         <v>39</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1696,10 +2581,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -1708,10 +2593,10 @@
         <v>39</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -1720,10 +2605,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -1732,10 +2617,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -1744,10 +2629,10 @@
         <v>39</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -1756,10 +2641,10 @@
         <v>39</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -1768,10 +2653,10 @@
         <v>39</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -1780,10 +2665,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -1792,10 +2677,10 @@
         <v>39</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -1804,10 +2689,10 @@
         <v>39</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1816,10 +2701,10 @@
         <v>39</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -1828,10 +2713,10 @@
         <v>39</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1840,10 +2725,10 @@
         <v>39</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -1852,10 +2737,10 @@
         <v>39</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1864,10 +2749,10 @@
         <v>39</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1876,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>72</v>
@@ -1888,10 +2773,10 @@
         <v>39</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1900,10 +2785,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1912,10 +2797,10 @@
         <v>39</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1924,10 +2809,10 @@
         <v>39</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1936,10 +2821,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1948,10 +2833,10 @@
         <v>39</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -1960,10 +2845,10 @@
         <v>39</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1972,10 +2857,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1984,10 +2869,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -1996,10 +2881,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -2008,10 +2893,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -2020,10 +2905,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -2032,10 +2917,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -2044,10 +2929,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -2056,10 +2941,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -2068,10 +2953,10 @@
         <v>39</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -2080,10 +2965,10 @@
         <v>39</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -2092,10 +2977,10 @@
         <v>39</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -2104,10 +2989,10 @@
         <v>39</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -2116,10 +3001,10 @@
         <v>39</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -2128,10 +3013,10 @@
         <v>39</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -2140,10 +3025,10 @@
         <v>39</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -2152,10 +3037,10 @@
         <v>39</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -2164,10 +3049,10 @@
         <v>39</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -2176,10 +3061,10 @@
         <v>39</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -2188,10 +3073,10 @@
         <v>39</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -2200,10 +3085,10 @@
         <v>39</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -2212,10 +3097,10 @@
         <v>39</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -2224,10 +3109,10 @@
         <v>39</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -2236,10 +3121,10 @@
         <v>39</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -2248,10 +3133,10 @@
         <v>39</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -2260,10 +3145,10 @@
         <v>39</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -2272,10 +3157,10 @@
         <v>39</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -2284,10 +3169,10 @@
         <v>39</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -2296,10 +3181,10 @@
         <v>39</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -2308,10 +3193,10 @@
         <v>39</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -2320,10 +3205,10 @@
         <v>39</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -2332,10 +3217,10 @@
         <v>39</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -2344,10 +3229,10 @@
         <v>39</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -2356,10 +3241,10 @@
         <v>39</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -2368,10 +3253,10 @@
         <v>39</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -2380,10 +3265,10 @@
         <v>39</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -2392,10 +3277,10 @@
         <v>39</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -2404,10 +3289,10 @@
         <v>39</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -2416,10 +3301,10 @@
         <v>39</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -2428,10 +3313,10 @@
         <v>39</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -2440,10 +3325,10 @@
         <v>39</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -2452,10 +3337,10 @@
         <v>39</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -2464,10 +3349,10 @@
         <v>39</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -2476,10 +3361,10 @@
         <v>39</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2488,10 +3373,10 @@
         <v>39</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -2500,10 +3385,10 @@
         <v>39</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2512,10 +3397,10 @@
         <v>39</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -2524,10 +3409,10 @@
         <v>39</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -2536,10 +3421,10 @@
         <v>39</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2548,10 +3433,10 @@
         <v>39</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -2560,10 +3445,10 @@
         <v>39</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -2572,10 +3457,10 @@
         <v>39</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -2584,10 +3469,10 @@
         <v>39</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -2596,10 +3481,10 @@
         <v>39</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -2608,10 +3493,10 @@
         <v>39</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -2620,10 +3505,10 @@
         <v>39</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -2632,10 +3517,10 @@
         <v>39</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="D91" s="2"/>
     </row>
@@ -2644,10 +3529,10 @@
         <v>39</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -2656,10 +3541,10 @@
         <v>39</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -2668,10 +3553,10 @@
         <v>39</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -2680,10 +3565,10 @@
         <v>39</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -2692,10 +3577,10 @@
         <v>39</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -2704,10 +3589,10 @@
         <v>39</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -2716,10 +3601,10 @@
         <v>39</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -2728,10 +3613,10 @@
         <v>39</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -2740,10 +3625,10 @@
         <v>39</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="D100" s="2"/>
     </row>
@@ -2752,10 +3637,10 @@
         <v>39</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="D101" s="2"/>
     </row>
@@ -2764,10 +3649,10 @@
         <v>39</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="D102" s="2"/>
     </row>
@@ -2776,10 +3661,10 @@
         <v>39</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="D103" s="2"/>
     </row>
@@ -2788,10 +3673,10 @@
         <v>39</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -2800,10 +3685,10 @@
         <v>39</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="D105" s="2"/>
     </row>
@@ -2812,10 +3697,10 @@
         <v>39</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D106" s="2"/>
     </row>
@@ -2824,10 +3709,10 @@
         <v>39</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="D107" s="2"/>
     </row>
@@ -2836,10 +3721,10 @@
         <v>39</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -2848,10 +3733,10 @@
         <v>39</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -2860,10 +3745,10 @@
         <v>39</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="D110" s="2"/>
     </row>
@@ -2872,10 +3757,10 @@
         <v>39</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -2884,10 +3769,10 @@
         <v>39</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -2896,10 +3781,10 @@
         <v>39</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -2908,10 +3793,10 @@
         <v>39</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -2920,10 +3805,10 @@
         <v>39</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -2932,10 +3817,10 @@
         <v>39</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -2944,10 +3829,10 @@
         <v>39</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="D117" s="2"/>
     </row>
@@ -2956,10 +3841,10 @@
         <v>39</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="D118" s="2"/>
     </row>
@@ -2968,10 +3853,10 @@
         <v>39</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -2980,10 +3865,10 @@
         <v>39</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -2992,10 +3877,10 @@
         <v>39</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D121" s="2"/>
     </row>
@@ -3004,10 +3889,10 @@
         <v>39</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="D122" s="2"/>
     </row>
@@ -3016,10 +3901,10 @@
         <v>39</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="D123" s="2"/>
     </row>
@@ -3028,10 +3913,10 @@
         <v>39</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -3040,10 +3925,10 @@
         <v>39</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="D125" s="2"/>
     </row>
@@ -3052,10 +3937,10 @@
         <v>39</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="D126" s="2"/>
     </row>
@@ -3064,10 +3949,10 @@
         <v>39</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="D127" s="2"/>
     </row>
@@ -3076,10 +3961,10 @@
         <v>39</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="D128" s="2"/>
     </row>
@@ -3088,10 +3973,10 @@
         <v>39</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>188</v>
+        <v>293</v>
       </c>
       <c r="D129" s="2"/>
     </row>
@@ -3100,10 +3985,10 @@
         <v>39</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="D130" s="2"/>
     </row>
@@ -3112,10 +3997,10 @@
         <v>39</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="D131" s="2"/>
     </row>
@@ -3124,10 +4009,10 @@
         <v>39</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -3136,10 +4021,10 @@
         <v>39</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="D133" s="2"/>
     </row>
@@ -3148,10 +4033,10 @@
         <v>39</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="D134" s="2"/>
     </row>
@@ -3160,10 +4045,10 @@
         <v>39</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -3172,10 +4057,10 @@
         <v>39</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="D136" s="2"/>
     </row>
@@ -3184,10 +4069,10 @@
         <v>39</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>196</v>
+        <v>309</v>
       </c>
       <c r="D137" s="2"/>
     </row>
@@ -3196,10 +4081,10 @@
         <v>39</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="D138" s="2"/>
     </row>
@@ -3208,10 +4093,10 @@
         <v>39</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="D139" s="2"/>
     </row>
@@ -3220,10 +4105,10 @@
         <v>39</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="D140" s="2"/>
     </row>
@@ -3232,10 +4117,10 @@
         <v>39</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D141" s="2"/>
     </row>
@@ -3244,10 +4129,10 @@
         <v>39</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="D142" s="2"/>
     </row>
@@ -3256,10 +4141,10 @@
         <v>39</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="D143" s="2"/>
     </row>
@@ -3268,10 +4153,10 @@
         <v>39</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>203</v>
+        <v>322</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="D144" s="2"/>
     </row>
@@ -3280,10 +4165,10 @@
         <v>39</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>204</v>
+        <v>324</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="D145" s="2"/>
     </row>
@@ -3292,10 +4177,10 @@
         <v>39</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="D146" s="2"/>
     </row>
@@ -3304,10 +4189,10 @@
         <v>39</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>206</v>
+        <v>329</v>
       </c>
       <c r="D147" s="2"/>
     </row>
@@ -3316,10 +4201,10 @@
         <v>39</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>207</v>
+        <v>331</v>
       </c>
       <c r="D148" s="2"/>
     </row>
@@ -3328,10 +4213,10 @@
         <v>39</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="D149" s="2"/>
     </row>
@@ -3340,10 +4225,10 @@
         <v>39</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>210</v>
+        <v>334</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -3352,10 +4237,10 @@
         <v>39</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="D151" s="2"/>
     </row>
@@ -3364,10 +4249,10 @@
         <v>39</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -3376,10 +4261,10 @@
         <v>39</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="D153" s="2"/>
     </row>
@@ -3388,10 +4273,10 @@
         <v>39</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>216</v>
+        <v>343</v>
       </c>
       <c r="D154" s="2"/>
     </row>
@@ -3400,10 +4285,10 @@
         <v>39</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>217</v>
+        <v>345</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -3412,10 +4297,10 @@
         <v>39</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -3424,10 +4309,10 @@
         <v>39</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>220</v>
+        <v>347</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="D157" s="2"/>
     </row>
@@ -3436,10 +4321,10 @@
         <v>39</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -3448,10 +4333,10 @@
         <v>39</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>222</v>
+        <v>351</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="D159" s="2"/>
     </row>
@@ -3460,10 +4345,10 @@
         <v>39</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>223</v>
+        <v>354</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -3472,10 +4357,10 @@
         <v>39</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="D161" s="2"/>
     </row>
@@ -3484,10 +4369,10 @@
         <v>39</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="D162" s="2"/>
     </row>
@@ -3496,10 +4381,10 @@
         <v>39</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>227</v>
+        <v>359</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="D163" s="2"/>
     </row>
@@ -3508,10 +4393,10 @@
         <v>39</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>228</v>
+        <v>361</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>228</v>
+        <v>362</v>
       </c>
       <c r="D164" s="2"/>
     </row>
@@ -3520,10 +4405,10 @@
         <v>39</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>229</v>
+        <v>363</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="D165" s="2"/>
     </row>
@@ -3532,10 +4417,10 @@
         <v>39</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>230</v>
+        <v>366</v>
       </c>
       <c r="D166" s="2"/>
     </row>
@@ -3544,10 +4429,10 @@
         <v>39</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>231</v>
+        <v>367</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="D167" s="2"/>
     </row>
@@ -3556,10 +4441,10 @@
         <v>39</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>232</v>
+        <v>368</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="D168" s="2"/>
     </row>
@@ -3568,10 +4453,10 @@
         <v>39</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>233</v>
+        <v>369</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>233</v>
+        <v>370</v>
       </c>
       <c r="D169" s="2"/>
     </row>
@@ -3580,10 +4465,10 @@
         <v>39</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D170" s="2"/>
     </row>
@@ -3592,10 +4477,10 @@
         <v>39</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="D171" s="2"/>
     </row>
@@ -3604,10 +4489,10 @@
         <v>39</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>236</v>
+        <v>376</v>
       </c>
       <c r="D172" s="2"/>
     </row>
@@ -3616,10 +4501,10 @@
         <v>39</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>237</v>
+        <v>377</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="D173" s="2"/>
     </row>
@@ -3628,10 +4513,10 @@
         <v>39</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>238</v>
+        <v>379</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>238</v>
+        <v>380</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -3640,10 +4525,10 @@
         <v>39</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>239</v>
+        <v>381</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="D175" s="2"/>
     </row>
@@ -3652,10 +4537,10 @@
         <v>39</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>240</v>
+        <v>383</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>241</v>
+        <v>384</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -3664,10 +4549,10 @@
         <v>39</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>242</v>
+        <v>385</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -3676,10 +4561,10 @@
         <v>39</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>243</v>
+        <v>387</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>244</v>
+        <v>388</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -3688,10 +4573,10 @@
         <v>39</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>245</v>
+        <v>389</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>245</v>
+        <v>390</v>
       </c>
       <c r="D179" s="2"/>
     </row>
@@ -3700,10 +4585,10 @@
         <v>39</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>246</v>
+        <v>391</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>246</v>
+        <v>392</v>
       </c>
       <c r="D180" s="2"/>
     </row>
@@ -3712,10 +4597,10 @@
         <v>39</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>247</v>
+        <v>393</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="D181" s="2"/>
     </row>
@@ -3724,10 +4609,10 @@
         <v>39</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>248</v>
+        <v>395</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>248</v>
+        <v>396</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -3736,10 +4621,10 @@
         <v>39</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>249</v>
+        <v>397</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>249</v>
+        <v>398</v>
       </c>
       <c r="D183" s="2"/>
     </row>
@@ -3748,10 +4633,10 @@
         <v>39</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>250</v>
+        <v>399</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D184" s="2"/>
     </row>
@@ -3760,10 +4645,10 @@
         <v>39</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>251</v>
+        <v>402</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -3772,10 +4657,10 @@
         <v>39</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>253</v>
+        <v>404</v>
       </c>
       <c r="D186" s="2"/>
     </row>
@@ -3784,10 +4669,10 @@
         <v>39</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>254</v>
+        <v>405</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>254</v>
+        <v>406</v>
       </c>
       <c r="D187" s="2"/>
     </row>
@@ -3796,10 +4681,10 @@
         <v>39</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>255</v>
+        <v>407</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>255</v>
+        <v>408</v>
       </c>
       <c r="D188" s="2"/>
     </row>
@@ -3808,10 +4693,10 @@
         <v>39</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>256</v>
+        <v>409</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>256</v>
+        <v>410</v>
       </c>
       <c r="D189" s="2"/>
     </row>
@@ -3820,10 +4705,10 @@
         <v>39</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>257</v>
+        <v>412</v>
       </c>
       <c r="D190" s="2"/>
     </row>
@@ -3832,10 +4717,10 @@
         <v>39</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>258</v>
+        <v>413</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>259</v>
+        <v>414</v>
       </c>
       <c r="D191" s="2"/>
     </row>
@@ -3844,10 +4729,10 @@
         <v>39</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>260</v>
+        <v>415</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>260</v>
+        <v>416</v>
       </c>
       <c r="D192" s="2"/>
     </row>
@@ -3856,10 +4741,10 @@
         <v>39</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>261</v>
+        <v>417</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>261</v>
+        <v>418</v>
       </c>
       <c r="D193" s="2"/>
     </row>
@@ -3868,10 +4753,10 @@
         <v>39</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>262</v>
+        <v>419</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="D194" s="2"/>
     </row>
@@ -3880,10 +4765,10 @@
         <v>39</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>263</v>
+        <v>420</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>263</v>
+        <v>421</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -3892,10 +4777,10 @@
         <v>39</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>264</v>
+        <v>422</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="D196" s="2"/>
     </row>
@@ -3904,10 +4789,10 @@
         <v>39</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>265</v>
+        <v>424</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>265</v>
+        <v>425</v>
       </c>
       <c r="D197" s="2"/>
     </row>
@@ -3916,10 +4801,10 @@
         <v>39</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>266</v>
+        <v>427</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -3928,10 +4813,10 @@
         <v>39</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>267</v>
+        <v>428</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>267</v>
+        <v>429</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -3940,10 +4825,10 @@
         <v>39</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>268</v>
+        <v>430</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>268</v>
+        <v>431</v>
       </c>
       <c r="D200" s="2"/>
     </row>
@@ -3952,10 +4837,10 @@
         <v>39</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>269</v>
+        <v>432</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>269</v>
+        <v>433</v>
       </c>
       <c r="D201" s="2"/>
     </row>
@@ -3964,10 +4849,10 @@
         <v>39</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>270</v>
+        <v>434</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>270</v>
+        <v>435</v>
       </c>
       <c r="D202" s="2"/>
     </row>
@@ -3976,10 +4861,10 @@
         <v>39</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>271</v>
+        <v>436</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>271</v>
+        <v>437</v>
       </c>
       <c r="D203" s="2"/>
     </row>
@@ -3988,10 +4873,10 @@
         <v>39</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>272</v>
+        <v>438</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>272</v>
+        <v>439</v>
       </c>
       <c r="D204" s="2"/>
     </row>
@@ -4000,10 +4885,10 @@
         <v>39</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>273</v>
+        <v>440</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>273</v>
+        <v>441</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -4012,10 +4897,10 @@
         <v>39</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>274</v>
+        <v>442</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>274</v>
+        <v>443</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -4024,10 +4909,10 @@
         <v>39</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>275</v>
+        <v>444</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>275</v>
+        <v>445</v>
       </c>
       <c r="D207" s="2"/>
     </row>
@@ -4036,10 +4921,10 @@
         <v>39</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>276</v>
+        <v>446</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="D208" s="2"/>
     </row>
@@ -4048,10 +4933,10 @@
         <v>39</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>277</v>
+        <v>448</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>277</v>
+        <v>449</v>
       </c>
       <c r="D209" s="2"/>
     </row>
@@ -4060,10 +4945,10 @@
         <v>39</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>278</v>
+        <v>450</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>278</v>
+        <v>451</v>
       </c>
       <c r="D210" s="2"/>
     </row>
@@ -4072,10 +4957,10 @@
         <v>39</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>279</v>
+        <v>452</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>279</v>
+        <v>453</v>
       </c>
       <c r="D211" s="2"/>
     </row>
@@ -4084,10 +4969,10 @@
         <v>39</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>280</v>
+        <v>455</v>
       </c>
       <c r="D212" s="2"/>
     </row>
@@ -4096,10 +4981,10 @@
         <v>39</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>281</v>
+        <v>457</v>
       </c>
       <c r="D213" s="2"/>
     </row>
@@ -4108,10 +4993,10 @@
         <v>39</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>282</v>
+        <v>458</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>282</v>
+        <v>459</v>
       </c>
       <c r="D214" s="2"/>
     </row>
@@ -4120,10 +5005,10 @@
         <v>39</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>283</v>
+        <v>460</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>283</v>
+        <v>461</v>
       </c>
       <c r="D215" s="2"/>
     </row>
@@ -4132,10 +5017,10 @@
         <v>39</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>284</v>
+        <v>462</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>284</v>
+        <v>463</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -4144,10 +5029,10 @@
         <v>39</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>285</v>
+        <v>464</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>285</v>
+        <v>151</v>
       </c>
       <c r="D217" s="2"/>
     </row>
@@ -4156,10 +5041,10 @@
         <v>39</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>286</v>
+        <v>465</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>286</v>
+        <v>466</v>
       </c>
       <c r="D218" s="2"/>
     </row>
@@ -4168,10 +5053,10 @@
         <v>39</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>287</v>
+        <v>467</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>287</v>
+        <v>468</v>
       </c>
       <c r="D219" s="2"/>
     </row>
@@ -4180,10 +5065,10 @@
         <v>39</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>288</v>
+        <v>469</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>288</v>
+        <v>470</v>
       </c>
       <c r="D220" s="2"/>
     </row>
@@ -4192,10 +5077,10 @@
         <v>39</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>289</v>
+        <v>471</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>289</v>
+        <v>472</v>
       </c>
       <c r="D221" s="2"/>
     </row>
@@ -4204,10 +5089,10 @@
         <v>39</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>290</v>
+        <v>473</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>290</v>
+        <v>474</v>
       </c>
       <c r="D222" s="2"/>
     </row>
@@ -4216,10 +5101,10 @@
         <v>39</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>291</v>
+        <v>475</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>291</v>
+        <v>476</v>
       </c>
       <c r="D223" s="2"/>
     </row>
@@ -4228,10 +5113,10 @@
         <v>39</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>292</v>
+        <v>477</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="D224" s="2"/>
     </row>
@@ -4240,10 +5125,10 @@
         <v>39</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>293</v>
+        <v>478</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>293</v>
+        <v>479</v>
       </c>
       <c r="D225" s="2"/>
     </row>
@@ -4252,10 +5137,10 @@
         <v>39</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>294</v>
+        <v>480</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>294</v>
+        <v>481</v>
       </c>
       <c r="D226" s="2"/>
     </row>
@@ -4264,10 +5149,10 @@
         <v>39</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>295</v>
+        <v>482</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>295</v>
+        <v>483</v>
       </c>
       <c r="D227" s="2"/>
     </row>
@@ -4276,10 +5161,10 @@
         <v>39</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>296</v>
+        <v>484</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>296</v>
+        <v>485</v>
       </c>
       <c r="D228" s="2"/>
     </row>
@@ -4288,10 +5173,10 @@
         <v>39</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>297</v>
+        <v>486</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>297</v>
+        <v>487</v>
       </c>
       <c r="D229" s="2"/>
     </row>
@@ -4300,10 +5185,10 @@
         <v>39</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>298</v>
+        <v>488</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>298</v>
+        <v>489</v>
       </c>
       <c r="D230" s="2"/>
     </row>
@@ -4312,10 +5197,10 @@
         <v>39</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>299</v>
+        <v>490</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>299</v>
+        <v>491</v>
       </c>
       <c r="D231" s="2"/>
     </row>
@@ -4324,10 +5209,10 @@
         <v>39</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>300</v>
+        <v>492</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>301</v>
+        <v>493</v>
       </c>
       <c r="D232" s="2"/>
     </row>
@@ -4336,10 +5221,10 @@
         <v>39</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>302</v>
+        <v>494</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>302</v>
+        <v>495</v>
       </c>
       <c r="D233" s="2"/>
     </row>
@@ -4348,10 +5233,10 @@
         <v>39</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>303</v>
+        <v>496</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>303</v>
+        <v>497</v>
       </c>
       <c r="D234" s="2"/>
     </row>
@@ -4360,10 +5245,10 @@
         <v>39</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>304</v>
+        <v>498</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>304</v>
+        <v>499</v>
       </c>
       <c r="D235" s="2"/>
     </row>
@@ -4372,10 +5257,10 @@
         <v>39</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>305</v>
+        <v>500</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>305</v>
+        <v>501</v>
       </c>
       <c r="D236" s="2"/>
     </row>
@@ -4384,10 +5269,10 @@
         <v>39</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>306</v>
+        <v>502</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>306</v>
+        <v>503</v>
       </c>
       <c r="D237" s="2"/>
     </row>
@@ -4396,10 +5281,10 @@
         <v>39</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>307</v>
+        <v>504</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>307</v>
+        <v>505</v>
       </c>
       <c r="D238" s="2"/>
     </row>
@@ -4408,10 +5293,10 @@
         <v>39</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>308</v>
+        <v>506</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>308</v>
+        <v>507</v>
       </c>
       <c r="D239" s="2"/>
     </row>
@@ -4420,10 +5305,10 @@
         <v>39</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>309</v>
+        <v>508</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>309</v>
+        <v>509</v>
       </c>
       <c r="D240" s="2"/>
     </row>
@@ -4432,10 +5317,10 @@
         <v>39</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>310</v>
+        <v>511</v>
       </c>
       <c r="D241" s="2"/>
     </row>
@@ -4444,10 +5329,10 @@
         <v>39</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>311</v>
+        <v>512</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="D242" s="2"/>
     </row>
@@ -4456,10 +5341,10 @@
         <v>39</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>312</v>
+        <v>513</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>312</v>
+        <v>514</v>
       </c>
       <c r="D243" s="2"/>
     </row>
@@ -4468,10 +5353,10 @@
         <v>39</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>313</v>
+        <v>515</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>314</v>
+        <v>516</v>
       </c>
       <c r="D244" s="2"/>
     </row>
@@ -4480,10 +5365,10 @@
         <v>39</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>315</v>
+        <v>517</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>315</v>
+        <v>518</v>
       </c>
       <c r="D245" s="2"/>
     </row>
@@ -4492,10 +5377,10 @@
         <v>39</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>316</v>
+        <v>519</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>316</v>
+        <v>520</v>
       </c>
       <c r="D246" s="2"/>
     </row>
@@ -4504,10 +5389,10 @@
         <v>39</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>317</v>
+        <v>521</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>317</v>
+        <v>522</v>
       </c>
       <c r="D247" s="2"/>
     </row>
@@ -4516,10 +5401,10 @@
         <v>39</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>318</v>
+        <v>524</v>
       </c>
       <c r="D248" s="2"/>
     </row>
@@ -4528,10 +5413,10 @@
         <v>39</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>319</v>
+        <v>526</v>
       </c>
       <c r="D249" s="2"/>
     </row>
@@ -4540,10 +5425,10 @@
         <v>39</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>320</v>
+        <v>527</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>321</v>
+        <v>528</v>
       </c>
       <c r="D250" s="2"/>
     </row>
@@ -4552,10 +5437,10 @@
         <v>39</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>322</v>
+        <v>529</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>322</v>
+        <v>530</v>
       </c>
       <c r="D251" s="2"/>
     </row>
@@ -4564,10 +5449,10 @@
         <v>39</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>323</v>
+        <v>531</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>323</v>
+        <v>532</v>
       </c>
       <c r="D252" s="2"/>
     </row>
@@ -4576,10 +5461,10 @@
         <v>39</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>324</v>
+        <v>533</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>324</v>
+        <v>534</v>
       </c>
       <c r="D253" s="2"/>
     </row>
@@ -4588,10 +5473,10 @@
         <v>39</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>325</v>
+        <v>535</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>325</v>
+        <v>536</v>
       </c>
       <c r="D254" s="2"/>
     </row>
@@ -4600,10 +5485,10 @@
         <v>39</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>326</v>
+        <v>537</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>326</v>
+        <v>538</v>
       </c>
       <c r="D255" s="2"/>
     </row>
@@ -4612,10 +5497,10 @@
         <v>39</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>327</v>
+        <v>539</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>327</v>
+        <v>540</v>
       </c>
       <c r="D256" s="2"/>
     </row>
@@ -4624,10 +5509,10 @@
         <v>39</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>328</v>
+        <v>541</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>328</v>
+        <v>542</v>
       </c>
       <c r="D257" s="2"/>
     </row>
@@ -4636,10 +5521,10 @@
         <v>39</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>329</v>
+        <v>543</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>329</v>
+        <v>544</v>
       </c>
       <c r="D258" s="2"/>
     </row>
@@ -4648,10 +5533,10 @@
         <v>39</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>330</v>
+        <v>545</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>330</v>
+        <v>546</v>
       </c>
       <c r="D259" s="2"/>
     </row>
@@ -4660,10 +5545,10 @@
         <v>39</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>331</v>
+        <v>547</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>332</v>
+        <v>548</v>
       </c>
       <c r="D260" s="2"/>
     </row>
@@ -4672,10 +5557,10 @@
         <v>39</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>333</v>
+        <v>549</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>333</v>
+        <v>550</v>
       </c>
       <c r="D261" s="2"/>
     </row>
@@ -4684,10 +5569,10 @@
         <v>39</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>334</v>
+        <v>551</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>335</v>
+        <v>552</v>
       </c>
       <c r="D262" s="2"/>
     </row>
@@ -4696,10 +5581,10 @@
         <v>39</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>336</v>
+        <v>553</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="D263" s="2"/>
     </row>
@@ -4708,10 +5593,10 @@
         <v>39</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>337</v>
+        <v>555</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>337</v>
+        <v>556</v>
       </c>
       <c r="D264" s="2"/>
     </row>
@@ -4720,10 +5605,10 @@
         <v>39</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>338</v>
+        <v>557</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>338</v>
+        <v>558</v>
       </c>
       <c r="D265" s="2"/>
     </row>
@@ -4732,10 +5617,10 @@
         <v>39</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>339</v>
+        <v>559</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>339</v>
+        <v>560</v>
       </c>
       <c r="D266" s="2"/>
     </row>
@@ -4744,10 +5629,10 @@
         <v>39</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>340</v>
+        <v>562</v>
       </c>
       <c r="D267" s="2"/>
     </row>
@@ -4756,10 +5641,10 @@
         <v>39</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>341</v>
+        <v>563</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>341</v>
+        <v>564</v>
       </c>
       <c r="D268" s="2"/>
     </row>
@@ -4768,10 +5653,10 @@
         <v>39</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>342</v>
+        <v>565</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>342</v>
+        <v>566</v>
       </c>
       <c r="D269" s="2"/>
     </row>
@@ -4780,10 +5665,10 @@
         <v>39</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>343</v>
+        <v>567</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>344</v>
+        <v>568</v>
       </c>
       <c r="D270" s="2"/>
     </row>
@@ -4792,10 +5677,10 @@
         <v>39</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>345</v>
+        <v>569</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>345</v>
+        <v>570</v>
       </c>
       <c r="D271" s="2"/>
     </row>
@@ -4804,10 +5689,10 @@
         <v>39</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>346</v>
+        <v>571</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>346</v>
+        <v>572</v>
       </c>
       <c r="D272" s="2"/>
     </row>
@@ -4816,10 +5701,10 @@
         <v>39</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>347</v>
+        <v>574</v>
       </c>
       <c r="D273" s="2"/>
     </row>
@@ -4828,10 +5713,10 @@
         <v>39</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>348</v>
+        <v>575</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>348</v>
+        <v>576</v>
       </c>
       <c r="D274" s="2"/>
     </row>
@@ -4840,10 +5725,10 @@
         <v>39</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>349</v>
+        <v>577</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>349</v>
+        <v>578</v>
       </c>
       <c r="D275" s="2"/>
     </row>
@@ -4852,10 +5737,10 @@
         <v>39</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>350</v>
+        <v>579</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="D276" s="2"/>
     </row>
@@ -4864,10 +5749,10 @@
         <v>39</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>352</v>
+        <v>580</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>352</v>
+        <v>581</v>
       </c>
       <c r="D277" s="2"/>
     </row>
@@ -4876,10 +5761,10 @@
         <v>39</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>353</v>
+        <v>582</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>354</v>
+        <v>583</v>
       </c>
       <c r="D278" s="2"/>
     </row>
@@ -4888,10 +5773,10 @@
         <v>39</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>355</v>
+        <v>584</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="D279" s="2"/>
     </row>
@@ -4900,10 +5785,10 @@
         <v>39</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>356</v>
+        <v>586</v>
       </c>
       <c r="D280" s="2"/>
     </row>
@@ -4912,10 +5797,10 @@
         <v>39</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>357</v>
+        <v>587</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>357</v>
+        <v>588</v>
       </c>
       <c r="D281" s="2"/>
     </row>
@@ -4924,10 +5809,10 @@
         <v>39</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>358</v>
+        <v>589</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>358</v>
+        <v>590</v>
       </c>
       <c r="D282" s="2"/>
     </row>
@@ -4936,10 +5821,10 @@
         <v>39</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>359</v>
+        <v>591</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>359</v>
+        <v>592</v>
       </c>
       <c r="D283" s="2"/>
     </row>
@@ -4948,10 +5833,10 @@
         <v>39</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>360</v>
+        <v>593</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>360</v>
+        <v>594</v>
       </c>
       <c r="D284" s="2"/>
     </row>
@@ -4960,10 +5845,10 @@
         <v>39</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>361</v>
+        <v>595</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>361</v>
+        <v>596</v>
       </c>
       <c r="D285" s="2"/>
     </row>
@@ -4972,10 +5857,10 @@
         <v>39</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>362</v>
+        <v>597</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>363</v>
+        <v>598</v>
       </c>
       <c r="D286" s="2"/>
     </row>
@@ -4984,10 +5869,10 @@
         <v>39</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>364</v>
+        <v>599</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="D287" s="2"/>
     </row>
@@ -4996,10 +5881,10 @@
         <v>39</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>366</v>
+        <v>601</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>367</v>
+        <v>602</v>
       </c>
       <c r="D288" s="2"/>
     </row>
@@ -5008,10 +5893,10 @@
         <v>39</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>368</v>
+        <v>603</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>368</v>
+        <v>604</v>
       </c>
       <c r="D289" s="2"/>
     </row>
@@ -5020,10 +5905,10 @@
         <v>39</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>369</v>
+        <v>605</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>369</v>
+        <v>606</v>
       </c>
       <c r="D290" s="2"/>
     </row>
@@ -5032,10 +5917,10 @@
         <v>39</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>370</v>
+        <v>607</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>371</v>
+        <v>608</v>
       </c>
       <c r="D291" s="2"/>
     </row>
@@ -5044,10 +5929,10 @@
         <v>39</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>372</v>
+        <v>609</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>372</v>
+        <v>485</v>
       </c>
       <c r="D292" s="2"/>
     </row>
@@ -5056,10 +5941,10 @@
         <v>39</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>373</v>
+        <v>610</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>373</v>
+        <v>611</v>
       </c>
       <c r="D293" s="2"/>
     </row>
@@ -5068,10 +5953,10 @@
         <v>39</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>374</v>
+        <v>612</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="D294" s="2"/>
     </row>
@@ -5080,10 +5965,10 @@
         <v>39</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>375</v>
+        <v>613</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>375</v>
+        <v>614</v>
       </c>
       <c r="D295" s="2"/>
     </row>
@@ -5092,10 +5977,10 @@
         <v>39</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>376</v>
+        <v>615</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>376</v>
+        <v>616</v>
       </c>
       <c r="D296" s="2"/>
     </row>
@@ -5104,10 +5989,10 @@
         <v>39</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>377</v>
+        <v>617</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>377</v>
+        <v>618</v>
       </c>
       <c r="D297" s="2"/>
     </row>
@@ -5116,10 +6001,10 @@
         <v>39</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>378</v>
+        <v>619</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>379</v>
+        <v>620</v>
       </c>
       <c r="D298" s="2"/>
     </row>
@@ -5128,10 +6013,10 @@
         <v>39</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>380</v>
+        <v>621</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>380</v>
+        <v>622</v>
       </c>
       <c r="D299" s="2"/>
     </row>
@@ -5140,10 +6025,10 @@
         <v>39</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>381</v>
+        <v>623</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>381</v>
+        <v>624</v>
       </c>
       <c r="D300" s="2"/>
     </row>
@@ -5152,10 +6037,10 @@
         <v>39</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>382</v>
+        <v>625</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>383</v>
+        <v>626</v>
       </c>
       <c r="D301" s="2"/>
     </row>
@@ -5164,10 +6049,10 @@
         <v>39</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>384</v>
+        <v>627</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>384</v>
+        <v>628</v>
       </c>
       <c r="D302" s="2"/>
     </row>
@@ -5176,10 +6061,10 @@
         <v>39</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>385</v>
+        <v>629</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>385</v>
+        <v>630</v>
       </c>
       <c r="D303" s="2"/>
     </row>
@@ -5188,10 +6073,10 @@
         <v>39</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>386</v>
+        <v>631</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>386</v>
+        <v>632</v>
       </c>
       <c r="D304" s="2"/>
     </row>
@@ -5200,10 +6085,10 @@
         <v>39</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>387</v>
+        <v>633</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>387</v>
+        <v>634</v>
       </c>
       <c r="D305" s="2"/>
     </row>
@@ -5212,10 +6097,10 @@
         <v>39</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>388</v>
+        <v>635</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>388</v>
+        <v>636</v>
       </c>
       <c r="D306" s="2"/>
     </row>
@@ -5224,10 +6109,10 @@
         <v>39</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>389</v>
+        <v>637</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>389</v>
+        <v>638</v>
       </c>
       <c r="D307" s="2"/>
     </row>
@@ -5236,10 +6121,10 @@
         <v>39</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>390</v>
+        <v>639</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>390</v>
+        <v>640</v>
       </c>
       <c r="D308" s="2"/>
     </row>
@@ -5248,10 +6133,10 @@
         <v>39</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>391</v>
+        <v>641</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>391</v>
+        <v>642</v>
       </c>
       <c r="D309" s="2"/>
     </row>
@@ -5260,10 +6145,10 @@
         <v>39</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>392</v>
+        <v>643</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>392</v>
+        <v>644</v>
       </c>
       <c r="D310" s="2"/>
     </row>
@@ -5272,10 +6157,10 @@
         <v>39</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>393</v>
+        <v>645</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>393</v>
+        <v>646</v>
       </c>
       <c r="D311" s="2"/>
     </row>
@@ -5284,10 +6169,10 @@
         <v>39</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>394</v>
+        <v>647</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>394</v>
+        <v>648</v>
       </c>
       <c r="D312" s="2"/>
     </row>
@@ -5296,10 +6181,10 @@
         <v>39</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>395</v>
+        <v>649</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>395</v>
+        <v>650</v>
       </c>
       <c r="D313" s="2"/>
     </row>
@@ -5308,10 +6193,10 @@
         <v>39</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>396</v>
+        <v>651</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="D314" s="2"/>
     </row>
@@ -5320,10 +6205,10 @@
         <v>39</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>397</v>
+        <v>652</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>397</v>
+        <v>653</v>
       </c>
       <c r="D315" s="2"/>
     </row>
@@ -5332,10 +6217,10 @@
         <v>39</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>398</v>
+        <v>654</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>398</v>
+        <v>655</v>
       </c>
       <c r="D316" s="2"/>
     </row>
@@ -5344,10 +6229,10 @@
         <v>39</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>399</v>
+        <v>656</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>400</v>
+        <v>562</v>
       </c>
       <c r="D317" s="2"/>
     </row>
@@ -5356,10 +6241,10 @@
         <v>39</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>401</v>
+        <v>657</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>402</v>
+        <v>658</v>
       </c>
       <c r="D318" s="2"/>
     </row>
@@ -5368,10 +6253,10 @@
         <v>39</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>403</v>
+        <v>659</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>403</v>
+        <v>660</v>
       </c>
       <c r="D319" s="2"/>
     </row>
@@ -5380,10 +6265,10 @@
         <v>39</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>404</v>
+        <v>661</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>404</v>
+        <v>662</v>
       </c>
       <c r="D320" s="2"/>
     </row>
@@ -5392,12 +6277,252 @@
         <v>39</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>405</v>
+        <v>663</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>405</v>
+        <v>664</v>
       </c>
       <c r="D321" s="2"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="D323" s="2"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C324" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="D324" s="2"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C325" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="D325" s="2"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B326" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C326" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B327" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="C327" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B328" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C328" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B329" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="C329" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B330" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="C330" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="D330" s="2"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B331" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="C331" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B332" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C332" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B333" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C333" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B334" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C334" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B335" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="C335" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B336" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="C336" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B337" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C337" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="C338" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B339" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="C339" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B340" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="C340" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B341" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C341" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="D341" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-SzChiefdomCS.xlsx
+++ b/CodeSystem-SzChiefdomCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzChiefdomCS.xlsx
+++ b/CodeSystem-SzChiefdomCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzChiefdomCS.xlsx
+++ b/CodeSystem-SzChiefdomCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzChiefdomCS.xlsx
+++ b/CodeSystem-SzChiefdomCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
